--- a/me/2.typescript/3.Functions.xlsx
+++ b/me/2.typescript/3.Functions.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF104612-BF32-463C-800F-48021879825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF59321-2224-41C1-A5D9-1A52E49E630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Return" sheetId="1" r:id="rId1"/>
+    <sheet name="Param-1" sheetId="2" r:id="rId2"/>
+    <sheet name="Param-2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="98">
   <si>
     <t>構成</t>
   </si>
@@ -290,6 +292,167 @@
   </si>
   <si>
     <t>console.lo() nó trả về undefined</t>
+  </si>
+  <si>
+    <t>02-param-01.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\04_function\02-param-01.ts</t>
+  </si>
+  <si>
+    <t>// Đầy đủ các tham số</t>
+  </si>
+  <si>
+    <t>function userInfo1(name: string, age: number): string{</t>
+  </si>
+  <si>
+    <t>    return `My name is ${name}, ${age} years old`;</t>
+  </si>
+  <si>
+    <t>// Giá trị mặc định cho các tham số</t>
+  </si>
+  <si>
+    <t>function userInfo2(name: string = "john", age: number = 69): string{</t>
+  </si>
+  <si>
+    <t>// Tham số khuyết</t>
+  </si>
+  <si>
+    <t>    if(age == null){</t>
+  </si>
+  <si>
+    <t>        return `My name is ${name}`;</t>
+  </si>
+  <si>
+    <t>    } else {</t>
+  </si>
+  <si>
+    <t>        return `My name is ${name}, ${age} years old`;  </t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>console.log(userInfo3("peter", 20));</t>
+  </si>
+  <si>
+    <t>Có 2 tham số, khi gọi hàm cũng truyền vào 2 tham số</t>
+  </si>
+  <si>
+    <t>Nếu như khi gọi hàm ko truyền giá trị name, age thì nó sẽ lấy giá trị mặc định</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Biến </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đóng vai trò là tham số khuyết, nghĩa là người dùng truyền vào cũng được, ko truyền vào cũng được</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function userInfo3(name: string = "john", age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: number): string{</t>
+    </r>
+  </si>
+  <si>
+    <t>cần phải kiểm tra điều kiện tham số age có được truyền vào hay ko vì khi ko được truyền vào thì</t>
+  </si>
+  <si>
+    <t>nó là undefined</t>
+  </si>
+  <si>
+    <t>console.log(userInfo1("peter", 20));</t>
+  </si>
+  <si>
+    <t>console.log(userInfo2());</t>
+  </si>
+  <si>
+    <t>02-param-01.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/04_function/02-param-01.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>02-param-02.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\04_function\02-param-02.ts</t>
+  </si>
+  <si>
+    <t>function totalLength(x: (string | any[]), y: (string[] | string) ) : number{</t>
+  </si>
+  <si>
+    <t>    return x.length + y.length;</t>
+  </si>
+  <si>
+    <t>// totalLength(['abc', 'def'], ['123']);</t>
+  </si>
+  <si>
+    <t>console.log(totalLength('abc', ['123']));                   // 4</t>
+  </si>
+  <si>
+    <t>console.log(totalLength([1, "abc", "def"], ['123', "def"]));        // 5</t>
+  </si>
+  <si>
+    <t>console.log(totalLength([1, "abc", "def"], "123")); // 3 + 3</t>
+  </si>
+  <si>
+    <t>x truyền vào có thể có kiểu dữ liệu là kiểu string hoặc cũng có thể là kiểu array</t>
+  </si>
+  <si>
+    <t>y truyền vào có thể là 1 array chứa các giá trị kiểu chuỗi hoặc cũng có thể truyền vào là 1 chuỗi</t>
+  </si>
+  <si>
+    <t>x: (string | any[])</t>
+  </si>
+  <si>
+    <t>y: (string[] | string)</t>
+  </si>
+  <si>
+    <t>02-param-02.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/04_function/02-param-02.js&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -1046,6 +1209,969 @@
         <a:xfrm flipH="1">
           <a:off x="6819900" y="9963150"/>
           <a:ext cx="276225" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>437496</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5452B8-AB24-1CF3-2B8A-6466E809F649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="10086975"/>
+          <a:ext cx="5228571" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBF84A8-2ED5-8A8D-12B6-EA109DF22E21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="10610850"/>
+          <a:ext cx="3133725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54D8D55-B5EC-8C26-67B1-5AD16A8D2B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2714625" y="9896475"/>
+          <a:ext cx="2790825" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>427975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DD56B3-6317-C7A5-108C-619F12DB60DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="12506325"/>
+          <a:ext cx="5200000" cy="1390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7418EC02-90FE-49D4-0D16-E24A3FB2F489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2057400" y="12372975"/>
+          <a:ext cx="3524250" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF34929B-8D10-A7CF-9F5F-BCEFD0512EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="12363450"/>
+          <a:ext cx="3810000" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{113FA8A1-50C3-D640-5240-E1869D1FBC3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="12363450"/>
+          <a:ext cx="3028950" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>427969</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE121298-ED91-2C24-E9EF-8A8021572C1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="10944225"/>
+          <a:ext cx="5247619" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258E58DB-96A4-F411-6841-628A7972CC54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2800350" y="11582400"/>
+          <a:ext cx="3086100" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1DAA4B-17E6-5214-8FB1-DA260AE326F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="10410825"/>
+          <a:ext cx="3876675" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>84886</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>123718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35487E9-EADF-D644-DA9D-6FD2AFC6C529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="12982575"/>
+          <a:ext cx="6714286" cy="857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7F683AA-33EA-6988-E463-E687FAEA9FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3067050" y="16535400"/>
+          <a:ext cx="409575" cy="2619375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7139CA64-F82B-495F-EBBA-2CA04D670810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="13858875"/>
+          <a:ext cx="1933575" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56305</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5282AE4-F05F-593D-DC64-4846D9C7AFF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7620000"/>
+          <a:ext cx="6761905" cy="961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE552A3-6210-D027-D663-03CF6256D5AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="8601075"/>
+          <a:ext cx="1857375" cy="2695575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598626</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5B7222-57AD-99DE-8A1F-D7C89E238644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629275" y="6067425"/>
+          <a:ext cx="4113351" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F211EDE-9A93-B55D-6052-73DDEFECAE2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="6400800"/>
+          <a:ext cx="2971800" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400DD0B1-8F50-E900-DC49-1B9A62339FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="6610350"/>
+          <a:ext cx="1924050" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A97B2D-308F-4C0A-20F4-465CC4FE60EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="6772275"/>
+          <a:ext cx="1857375" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1339,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,4 +3491,1681 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D701DE2F-6A32-4116-89F2-E6AAD308246C}">
+  <dimension ref="A4:T104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:H104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="15"/>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="15"/>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="5"/>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="5"/>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="5"/>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="3"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="5"/>
+      <c r="J55" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="5"/>
+      <c r="J56" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="9"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="10"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G87" s="10"/>
+      <c r="H87" s="15"/>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="10"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G93" s="10"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="18"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104702FE-43E7-4CCB-83B1-2707BCECDD52}">
+  <dimension ref="A4:R78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15"/>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="15"/>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="5"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="5"/>
+      <c r="J30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="5"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="15"/>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/3.Functions.xlsx
+++ b/me/2.typescript/3.Functions.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF59321-2224-41C1-A5D9-1A52E49E630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08651DA-91F6-41FA-9EFF-CC9663A30680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Return" sheetId="1" r:id="rId1"/>
     <sheet name="Param-1" sheetId="2" r:id="rId2"/>
     <sheet name="Param-2" sheetId="3" r:id="rId3"/>
+    <sheet name="Rest params" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="120">
   <si>
     <t>構成</t>
   </si>
@@ -453,6 +454,136 @@
   </si>
   <si>
     <t>        &lt;script src="./mjs/04_function/02-param-02.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>03-rest.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\04_function\03-rest.ts</t>
+  </si>
+  <si>
+    <t>    return name + " study " + course.join(", ");</t>
+  </si>
+  <si>
+    <t>console.log(showStudentInfo("john", "es6", "php")); // john study es6, php, typescipt</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\04_function\02-param-01.js</t>
+  </si>
+  <si>
+    <t>function userInfo1(name, age) {</t>
+  </si>
+  <si>
+    <t>function userInfo2(name = "john", age = 69) {</t>
+  </si>
+  <si>
+    <t>function userInfo3(name = "john", age) {</t>
+  </si>
+  <si>
+    <t>    if (age == null) {</t>
+  </si>
+  <si>
+    <t>    else {</t>
+  </si>
+  <si>
+    <t>        return `My name is ${name}, ${age} years old`;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\04_function\02-param-02.js</t>
+  </si>
+  <si>
+    <t>function totalLength(x, y) {</t>
+  </si>
+  <si>
+    <t>console.log(totalLength('abc', ['123'])); // 4</t>
+  </si>
+  <si>
+    <t>console.log(totalLength([1, "abc", "def"], ['123', "def"])); // 5</t>
+  </si>
+  <si>
+    <t>03-rest.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/04_function/03-rest.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\04_function\03-rest.js</t>
+  </si>
+  <si>
+    <t>function showStudentInfo(name, ...course) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function showStudentInfo(name: string, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: string[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) : string {</t>
+    </r>
+  </si>
+  <si>
+    <t>rest params</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">console.log(showStudentInfo("john", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"es6", "php"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)); // john study es6, php, typescipt</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2172,6 +2303,364 @@
         <a:xfrm>
           <a:off x="4019550" y="6772275"/>
           <a:ext cx="1857375" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B315E75-153D-7529-E8C6-3C5A4CB14D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2914650" y="11430000"/>
+          <a:ext cx="876300" cy="3829050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361143</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE06D494-EC76-2663-7F09-25D5DC05F06F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7239000"/>
+          <a:ext cx="6457143" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C7581F-108B-844B-D4C5-C512E2FB285B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="8153400"/>
+          <a:ext cx="2419350" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C00F91B-C5AD-B3C3-FA0C-B9AECD5CE188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3086100" y="11220450"/>
+          <a:ext cx="1085850" cy="3133725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E609284-3828-28C0-9919-CE2BA721BCF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="5276850"/>
+          <a:ext cx="4562475" cy="1155163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB1ABFA-933B-4557-1FBE-F28B3642698C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3733800" y="5857875"/>
+          <a:ext cx="4276725" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB41541E-5115-0522-931C-99CC2284867A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3238500" y="5695950"/>
+          <a:ext cx="114300" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2465,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:R102"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:H82"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3495,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D701DE2F-6A32-4116-89F2-E6AAD308246C}">
-  <dimension ref="A4:T104"/>
+  <dimension ref="A4:T125"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:H104"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="M109" sqref="L109:M109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4386,6 +4875,191 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4394,10 +5068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104702FE-43E7-4CCB-83B1-2707BCECDD52}">
-  <dimension ref="A4:R78"/>
+  <dimension ref="A4:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="N84" sqref="M84:N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5164,6 +5838,898 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91445205-CEBA-418F-9820-72217C856E3C}">
+  <dimension ref="A4:L85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15"/>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="15"/>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="3"/>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="10"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="10"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="15"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="10"/>
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="10"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H59" s="10"/>
+      <c r="I59" s="15"/>
+      <c r="J59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="10"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="15"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="10"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="10"/>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="10"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="15"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="15"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="10"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="15"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="10"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="10"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="18"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/me/2.typescript/3.Functions.xlsx
+++ b/me/2.typescript/3.Functions.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08651DA-91F6-41FA-9EFF-CC9663A30680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFD4F89-5EEE-475B-AFC0-7F01FC745F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Return" sheetId="1" r:id="rId1"/>
     <sheet name="Param-1" sheetId="2" r:id="rId2"/>
     <sheet name="Param-2" sheetId="3" r:id="rId3"/>
     <sheet name="Rest params" sheetId="4" r:id="rId4"/>
+    <sheet name="Function types" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="140">
   <si>
     <t>構成</t>
   </si>
@@ -584,6 +585,66 @@
       </rPr>
       <t>)); // john study es6, php, typescipt</t>
     </r>
+  </si>
+  <si>
+    <t>04-type.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\04_function\04-type.ts</t>
+  </si>
+  <si>
+    <t>function userInfo01(name: string, age: number): string {</t>
+  </si>
+  <si>
+    <t>let userInfo02 = function(name: string, age: number): string {</t>
+  </si>
+  <si>
+    <t>console.log(userInfo01("abc", 23));</t>
+  </si>
+  <si>
+    <t>console.log(userInfo02("abc", 23));</t>
+  </si>
+  <si>
+    <t>userInfo02 và userInfo01 là giống nhau chỉ khác nhau về cách viết</t>
+  </si>
+  <si>
+    <t>04-type.js</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\04_function\04-type.js</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>function userInfo01(name, age) {</t>
+  </si>
+  <si>
+    <t>let userInfo02 = function (name, age) {</t>
+  </si>
+  <si>
+    <t>let userInfo03: (name: string, age: number) =&gt; string =</t>
+  </si>
+  <si>
+    <t>console.log(userInfo03("abc", 23));</t>
+  </si>
+  <si>
+    <t>    function (pname, page) {</t>
+  </si>
+  <si>
+    <t>        return `My name is ${pname}, ${page} years old`;</t>
+  </si>
+  <si>
+    <t>let userInfo03 = function (pname, page) {</t>
+  </si>
+  <si>
+    <t>    return `My name is ${pname}, ${page} years old`;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/04_function/04-type.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Một số cách viết function</t>
   </si>
 </sst>
 </file>
@@ -706,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -728,6 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2438,10 +2500,10 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2457,7 +2519,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1285875" y="8153400"/>
-          <a:ext cx="2419350" cy="3000375"/>
+          <a:ext cx="1943100" cy="2952750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2487,12 +2549,12 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -2509,8 +2571,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3086100" y="11220450"/>
-          <a:ext cx="1085850" cy="3133725"/>
+          <a:off x="3086100" y="11239500"/>
+          <a:ext cx="381000" cy="3114675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2661,6 +2723,629 @@
         <a:xfrm flipH="1">
           <a:off x="3238500" y="5695950"/>
           <a:ext cx="114300" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>408762</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABF4568-1D08-5C43-739B-3EB0F1C3AA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8572500"/>
+          <a:ext cx="6504762" cy="933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C8F144D-8D0E-E470-55E3-3BE87E00D7D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="9525000"/>
+          <a:ext cx="1895475" cy="3114675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A7CF27-9BCD-D11B-A8C0-195130A8085F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3076575" y="14087475"/>
+          <a:ext cx="476250" cy="3295650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2621EB39-1241-95FD-89DF-B9B286762700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1533525" y="7581900"/>
+          <a:ext cx="190500" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9A67A0-EE9D-7590-F230-117A2AA32FEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="7791450"/>
+          <a:ext cx="609600" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5093FE3B-9C06-7846-A8C3-0EEB17AF37A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2076450" y="7562850"/>
+          <a:ext cx="409575" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5362E169-8173-C95C-1AD2-19486D900949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="7772400"/>
+          <a:ext cx="819150" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F865A0-6027-57B1-2BDB-9729153CFD0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3609975" y="6800850"/>
+          <a:ext cx="304800" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466080</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E0CEC3-4077-1FC9-15EC-CD2DF7F578A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="7400925"/>
+          <a:ext cx="5161905" cy="1742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86308C95-38C4-F11D-AC48-87E87DE7951E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2714625" y="8001000"/>
+          <a:ext cx="3257550" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C39284DF-676B-E8F5-D8C7-DD7446AC31E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2714625" y="8239125"/>
+          <a:ext cx="3219450" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DAF06C7-74A4-23F7-13A7-F0F599D29AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2695575" y="8429625"/>
+          <a:ext cx="3267075" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5930,8 +6615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91445205-CEBA-418F-9820-72217C856E3C}">
   <dimension ref="A4:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6309,305 +6994,305 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="11" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="13"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="10" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="15"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="10" t="s">
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10" t="s">
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10" t="s">
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="15"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="10"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10" t="s">
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="15"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="10"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10" t="s">
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="15"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="10"/>
-      <c r="C54" s="14"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10" t="s">
+      <c r="E54" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="15"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
-      <c r="C55" s="14"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10" t="s">
+      <c r="E55" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="15"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="10"/>
-      <c r="C56" s="14"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="15"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="10"/>
-      <c r="C57" s="14"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H57" s="10"/>
-      <c r="I57" s="15"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="10"/>
-      <c r="C58" s="14"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="15"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
-      <c r="C59" s="14"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="6" t="s">
+      <c r="F59" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="15"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="15"/>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
       <c r="J59" t="s">
-        <v>15</v>
-      </c>
-      <c r="K59" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="15"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
-      <c r="C61" s="14"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10" t="s">
+      <c r="E61" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="F61" s="10"/>
       <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="15"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
-      <c r="C62" s="14"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="10"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10" t="s">
+      <c r="E62" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="F62" s="10"/>
       <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="15"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="10"/>
-      <c r="C63" s="14"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="10"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10" t="s">
+      <c r="E63" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="F63" s="10"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="15"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="10"/>
-      <c r="C64" s="14"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10" t="s">
+      <c r="F64" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="10"/>
-      <c r="I64" s="15"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
-      <c r="C65" s="14"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10" t="s">
+      <c r="F65" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H65" s="10"/>
-      <c r="I65" s="15"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
-      <c r="C66" s="14"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10" t="s">
+      <c r="F66" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H66" s="10"/>
-      <c r="I66" s="15"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="10"/>
-      <c r="C67" s="14"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10" t="s">
+      <c r="F67" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="15"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="10"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10" t="s">
+      <c r="G67" s="10"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="15"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="10"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17" t="s">
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="18"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H69" s="18"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>39</v>
       </c>
@@ -6618,7 +7303,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>40</v>
       </c>
@@ -6629,7 +7314,7 @@
       <c r="G74" s="19"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>41</v>
       </c>
@@ -6640,7 +7325,7 @@
       <c r="G75" s="19"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="20" t="s">
         <v>114</v>
       </c>
@@ -6651,7 +7336,7 @@
       <c r="G76" s="19"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>42</v>
       </c>
@@ -6662,7 +7347,7 @@
       <c r="G77" s="19"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
         <v>43</v>
       </c>
@@ -6734,4 +7419,1081 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8D4588-595B-43B4-A61D-FA4C31FB6656}">
+  <dimension ref="A2:J109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="15"/>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="15"/>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="5"/>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G73" s="10"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G74" s="10"/>
+      <c r="H74" s="15"/>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G81" s="10"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G82" s="10"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G83" s="10"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="18"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="9"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/3.Functions.xlsx
+++ b/me/2.typescript/3.Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFD4F89-5EEE-475B-AFC0-7F01FC745F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C369E-BF1B-425D-A4FF-CC306CDE0885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Return" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Param-2" sheetId="3" r:id="rId3"/>
     <sheet name="Rest params" sheetId="4" r:id="rId4"/>
     <sheet name="Function types" sheetId="5" r:id="rId5"/>
+    <sheet name="Arrow Functions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="167">
   <si>
     <t>構成</t>
   </si>
@@ -646,12 +647,844 @@
   <si>
     <t>Một số cách viết function</t>
   </si>
+  <si>
+    <t>05-arrow.ts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\04_function\05-arrow.ts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>let f4 = (i : number) =&gt; { return i * i; }</t>
+  </si>
+  <si>
+    <t>let f5 = (i : number) =&gt; i * i;</t>
+  </si>
+  <si>
+    <t>console.log(f5(5));</t>
+  </si>
+  <si>
+    <t>05-arrow.js</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>is compiled</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/04_function/05-arrow.js&gt;&lt;/script&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\04_function\05-arrow.js</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Tham s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> truy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n vào ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u number, hàm tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> giá tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u number</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Tham s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> truy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n vào ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u number, ko c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n ghi ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a hàm là number</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>let f1 = function(i : number)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> { return i * i; }</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>let f2 = function(i : number)  { return i * i; }</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let f3 = (i : number) : number </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> { return i * i; }</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>arrow function nên t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khóa function ko còn n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a, nó là arrow function nên c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i có d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u =&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẫ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n dùng arrow function nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng ko nói ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là gì</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẫ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n dùng arrow function nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng ko nói ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là gì, ko c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n ghi return, và đóng m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ngo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n {}</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>console.log(f1(5));</t>
+  </si>
+  <si>
+    <t>console.log(f2(5));</t>
+  </si>
+  <si>
+    <t>console.log(f3(5));</t>
+  </si>
+  <si>
+    <t>console.log(f4(5));</t>
+  </si>
+  <si>
+    <t>let f1 = function (i) { return i * i; };</t>
+  </si>
+  <si>
+    <t>let f2 = function (i) { return i * i; };</t>
+  </si>
+  <si>
+    <t>let f3 = (i) =&gt; { return i * i; };</t>
+  </si>
+  <si>
+    <t>let f4 = (i) =&gt; { return i * i; };</t>
+  </si>
+  <si>
+    <t>let f5 = (i) =&gt; i * i;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +1498,43 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -767,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -790,6 +1660,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3346,6 +4218,576 @@
         <a:xfrm flipV="1">
           <a:off x="2695575" y="8429625"/>
           <a:ext cx="3267075" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>656409</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{588622AB-8082-21B3-6939-84441CD9BF9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="736600" y="10814050"/>
+          <a:ext cx="6523809" cy="1390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC3FBBB-208E-D721-A5FC-47CDA5EBC488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="12217400"/>
+          <a:ext cx="2000250" cy="4089400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D444701-D322-284C-E6BF-A140C520A778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3467100" y="16402050"/>
+          <a:ext cx="304800" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078F6C99-A3AC-CBEA-3134-BEBCB45DC4E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2876550" y="6343650"/>
+          <a:ext cx="482600" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD31BCF5-CAE7-B5BD-C7CE-F0E90261E3DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3206750" y="20777200"/>
+          <a:ext cx="412750" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>74706</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>620099</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>39549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F256E7-A835-459C-9F52-F6BEC938B0D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991412" y="21993412"/>
+          <a:ext cx="7119511" cy="4910372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>597647</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>612588</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>194236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16880EE1-EC5D-D67F-1663-654296C7A2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1912471" y="23480059"/>
+          <a:ext cx="4616823" cy="1725706"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>141941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9C605E-8584-8254-6140-9A360D56DBAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1919941" y="23763941"/>
+          <a:ext cx="4631765" cy="1755588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>597647</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620059</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>82177</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5DD2DC-87C8-DC42-DADD-046E42E48CB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1912471" y="24010471"/>
+          <a:ext cx="4624294" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590176</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>141942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>612588</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863966E1-BFC0-2516-4509-0B85951FE69B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="24227118"/>
+          <a:ext cx="4624294" cy="1942353"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>575235</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>149411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620059</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2917C7C3-E2EE-858B-FC4F-37DDBF73491D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1890059" y="24466176"/>
+          <a:ext cx="4646706" cy="1949824"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3643,9 +5085,9 @@
       <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -3657,7 +5099,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>1</v>
@@ -3669,7 +5111,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="10"/>
       <c r="B6" s="14"/>
       <c r="C6" s="10" t="s">
@@ -3681,7 +5123,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="14"/>
       <c r="C7" s="10" t="s">
@@ -3693,7 +5135,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
@@ -3705,7 +5147,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
@@ -3717,7 +5159,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
@@ -3729,7 +5171,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
@@ -3741,7 +5183,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
@@ -3753,7 +5195,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
@@ -3765,7 +5207,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
@@ -3777,7 +5219,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
@@ -3789,7 +5231,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
@@ -3801,7 +5243,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
@@ -3819,7 +5261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="10"/>
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
@@ -3837,7 +5279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="10"/>
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
@@ -3855,7 +5297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="10"/>
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
@@ -3867,12 +5309,12 @@
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
@@ -3888,7 +5330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
@@ -3898,7 +5340,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
@@ -3908,7 +5350,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="B27" s="4"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -3916,7 +5358,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
@@ -3932,7 +5374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
@@ -3942,7 +5384,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="B30" s="4" t="s">
         <v>22</v>
       </c>
@@ -3952,7 +5394,7 @@
       <c r="F30" s="19"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
@@ -3962,7 +5404,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="B32" s="4"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -3970,7 +5412,7 @@
       <c r="F32" s="19"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="B33" s="4" t="s">
         <v>50</v>
       </c>
@@ -3986,7 +5428,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
@@ -3996,7 +5438,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="B35" s="4" t="s">
         <v>20</v>
       </c>
@@ -4006,7 +5448,7 @@
       <c r="F35" s="19"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="B36" s="4"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -4014,7 +5456,7 @@
       <c r="F36" s="19"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="B37" s="4" t="s">
         <v>52</v>
       </c>
@@ -4039,7 +5481,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="B38" s="4" t="s">
         <v>24</v>
       </c>
@@ -4061,7 +5503,7 @@
       <c r="Q38" s="19"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="B39" s="4" t="s">
         <v>20</v>
       </c>
@@ -4083,7 +5525,7 @@
       <c r="Q39" s="19"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="B40" s="4"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -4103,7 +5545,7 @@
       <c r="Q40" s="19"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="B41" s="4" t="s">
         <v>25</v>
       </c>
@@ -4125,7 +5567,7 @@
       <c r="Q41" s="8"/>
       <c r="R41" s="9"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="B42" s="4" t="s">
         <v>26</v>
       </c>
@@ -4135,7 +5577,7 @@
       <c r="F42" s="19"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="B43" s="4" t="s">
         <v>27</v>
       </c>
@@ -4145,7 +5587,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="B44" s="7" t="s">
         <v>28</v>
       </c>
@@ -4155,17 +5597,17 @@
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="B48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="10" t="s">
         <v>0</v>
       </c>
@@ -4177,7 +5619,7 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="10"/>
       <c r="B57" s="11" t="s">
         <v>1</v>
@@ -4192,7 +5634,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="10"/>
       <c r="B58" s="14"/>
       <c r="C58" s="10" t="s">
@@ -4207,7 +5649,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="10"/>
       <c r="B59" s="14"/>
       <c r="C59" s="10" t="s">
@@ -4219,7 +5661,7 @@
       <c r="G59" s="10"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="10"/>
       <c r="B60" s="14"/>
       <c r="C60" s="10"/>
@@ -4231,7 +5673,7 @@
       <c r="G60" s="10"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="10"/>
       <c r="B61" s="14"/>
       <c r="C61" s="10"/>
@@ -4243,7 +5685,7 @@
       <c r="G61" s="10"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="10"/>
       <c r="B62" s="14"/>
       <c r="C62" s="10"/>
@@ -4255,7 +5697,7 @@
       <c r="G62" s="10"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="10"/>
       <c r="B63" s="14"/>
       <c r="C63" s="10"/>
@@ -4267,7 +5709,7 @@
       <c r="G63" s="10"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="10"/>
       <c r="B64" s="14"/>
       <c r="C64" s="10"/>
@@ -4279,7 +5721,7 @@
       <c r="G64" s="10"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="10"/>
       <c r="B65" s="14"/>
       <c r="C65" s="10"/>
@@ -4291,7 +5733,7 @@
       <c r="G65" s="10"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="10"/>
       <c r="B66" s="14"/>
       <c r="C66" s="10"/>
@@ -4309,7 +5751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="10"/>
       <c r="B67" s="14"/>
       <c r="C67" s="10"/>
@@ -4321,7 +5763,7 @@
       <c r="G67" s="10"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="10"/>
       <c r="B68" s="14"/>
       <c r="C68" s="10"/>
@@ -4333,7 +5775,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="10"/>
       <c r="B69" s="14"/>
       <c r="C69" s="10"/>
@@ -4345,7 +5787,7 @@
       <c r="G69" s="10"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="10"/>
       <c r="B70" s="14"/>
       <c r="C70" s="10"/>
@@ -4357,7 +5799,7 @@
       <c r="G70" s="10"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="10"/>
       <c r="B71" s="14"/>
       <c r="C71" s="10"/>
@@ -4369,7 +5811,7 @@
       <c r="G71" s="10"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="10"/>
       <c r="B72" s="14"/>
       <c r="C72" s="10"/>
@@ -4381,7 +5823,7 @@
       <c r="G72" s="10"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="10"/>
       <c r="B73" s="16"/>
       <c r="C73" s="17"/>
@@ -4393,12 +5835,12 @@
       <c r="G73" s="17"/>
       <c r="H73" s="18"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="B77" s="1" t="s">
         <v>39</v>
       </c>
@@ -4409,7 +5851,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="B78" s="4" t="s">
         <v>40</v>
       </c>
@@ -4420,7 +5862,7 @@
       <c r="G78" s="19"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="B79" s="4" t="s">
         <v>41</v>
       </c>
@@ -4431,7 +5873,7 @@
       <c r="G79" s="19"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="B80" s="20" t="s">
         <v>44</v>
       </c>
@@ -4442,7 +5884,7 @@
       <c r="G80" s="19"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="B81" s="4" t="s">
         <v>42</v>
       </c>
@@ -4453,7 +5895,7 @@
       <c r="G81" s="19"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="B82" s="7" t="s">
         <v>43</v>
       </c>
@@ -4464,7 +5906,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
@@ -4472,7 +5914,7 @@
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
@@ -4480,7 +5922,7 @@
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -4491,7 +5933,7 @@
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="B86" s="1" t="s">
         <v>34</v>
       </c>
@@ -4501,7 +5943,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="B87" s="4" t="s">
         <v>19</v>
       </c>
@@ -4511,7 +5953,7 @@
       <c r="F87" s="19"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="B88" s="4" t="s">
         <v>20</v>
       </c>
@@ -4521,7 +5963,7 @@
       <c r="F88" s="19"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="B89" s="4" t="s">
         <v>35</v>
       </c>
@@ -4531,7 +5973,7 @@
       <c r="F89" s="19"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="B90" s="4" t="s">
         <v>21</v>
       </c>
@@ -4541,7 +5983,7 @@
       <c r="F90" s="19"/>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="B91" s="4" t="s">
         <v>22</v>
       </c>
@@ -4551,7 +5993,7 @@
       <c r="F91" s="19"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="B92" s="4" t="s">
         <v>20</v>
       </c>
@@ -4561,7 +6003,7 @@
       <c r="F92" s="19"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="B93" s="4" t="s">
         <v>36</v>
       </c>
@@ -4571,7 +6013,7 @@
       <c r="F93" s="19"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="B94" s="4" t="s">
         <v>23</v>
       </c>
@@ -4581,7 +6023,7 @@
       <c r="F94" s="19"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="B95" s="4" t="s">
         <v>20</v>
       </c>
@@ -4591,7 +6033,7 @@
       <c r="F95" s="19"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="B96" s="4" t="s">
         <v>37</v>
       </c>
@@ -4601,7 +6043,7 @@
       <c r="F96" s="19"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7">
       <c r="B97" s="4" t="s">
         <v>24</v>
       </c>
@@ -4611,7 +6053,7 @@
       <c r="F97" s="19"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7">
       <c r="B98" s="4" t="s">
         <v>20</v>
       </c>
@@ -4621,7 +6063,7 @@
       <c r="F98" s="19"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7">
       <c r="B99" s="4" t="s">
         <v>25</v>
       </c>
@@ -4631,7 +6073,7 @@
       <c r="F99" s="19"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7">
       <c r="B100" s="4" t="s">
         <v>26</v>
       </c>
@@ -4641,7 +6083,7 @@
       <c r="F100" s="19"/>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7">
       <c r="B101" s="4" t="s">
         <v>27</v>
       </c>
@@ -4651,7 +6093,7 @@
       <c r="F101" s="19"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7">
       <c r="B102" s="7" t="s">
         <v>28</v>
       </c>
@@ -4662,6 +6104,7 @@
       <c r="G102" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4675,9 +6118,9 @@
       <selection activeCell="M109" sqref="L109:M109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -4689,7 +6132,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>1</v>
@@ -4701,7 +6144,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="10"/>
       <c r="B6" s="14"/>
       <c r="C6" s="10" t="s">
@@ -4713,7 +6156,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="14"/>
       <c r="C7" s="10" t="s">
@@ -4725,7 +6168,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
@@ -4737,7 +6180,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
@@ -4749,7 +6192,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
@@ -4761,7 +6204,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
@@ -4773,7 +6216,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
@@ -4785,7 +6228,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
@@ -4797,7 +6240,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
@@ -4809,7 +6252,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
@@ -4821,7 +6264,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
@@ -4833,7 +6276,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
@@ -4845,7 +6288,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="10"/>
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
@@ -4857,7 +6300,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="10"/>
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
@@ -4869,7 +6312,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="10"/>
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
@@ -4887,7 +6330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="10"/>
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
@@ -4905,7 +6348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="10"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
@@ -4917,12 +6360,12 @@
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
@@ -4933,7 +6376,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="B28" s="4" t="s">
         <v>62</v>
       </c>
@@ -4950,7 +6393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="B29" s="4" t="s">
         <v>63</v>
       </c>
@@ -4961,7 +6404,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
@@ -4972,7 +6415,7 @@
       <c r="G30" s="19"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="B31" s="4"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -4981,7 +6424,7 @@
       <c r="G31" s="19"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="B32" s="7" t="s">
         <v>80</v>
       </c>
@@ -4992,12 +6435,12 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="B40" s="1" t="s">
         <v>64</v>
       </c>
@@ -5008,7 +6451,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="B41" s="4" t="s">
         <v>65</v>
       </c>
@@ -5025,7 +6468,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="B42" s="4" t="s">
         <v>63</v>
       </c>
@@ -5036,7 +6479,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="B43" s="4" t="s">
         <v>20</v>
       </c>
@@ -5047,7 +6490,7 @@
       <c r="G43" s="19"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="B44" s="4"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -5056,7 +6499,7 @@
       <c r="G44" s="19"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="B45" s="7" t="s">
         <v>81</v>
       </c>
@@ -5067,12 +6510,12 @@
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="B53" s="1" t="s">
         <v>66</v>
       </c>
@@ -5083,7 +6526,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
@@ -5110,7 +6553,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="3"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="B55" s="4" t="s">
         <v>67</v>
       </c>
@@ -5134,7 +6577,7 @@
       <c r="S55" s="19"/>
       <c r="T55" s="5"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="B56" s="4" t="s">
         <v>68</v>
       </c>
@@ -5158,7 +6601,7 @@
       <c r="S56" s="8"/>
       <c r="T56" s="9"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="B57" s="4" t="s">
         <v>69</v>
       </c>
@@ -5169,7 +6612,7 @@
       <c r="G57" s="19"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="B58" s="4" t="s">
         <v>70</v>
       </c>
@@ -5180,7 +6623,7 @@
       <c r="G58" s="19"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="B59" s="4" t="s">
         <v>71</v>
       </c>
@@ -5191,7 +6634,7 @@
       <c r="G59" s="19"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="B60" s="4" t="s">
         <v>72</v>
       </c>
@@ -5202,7 +6645,7 @@
       <c r="G60" s="19"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="B61" s="4" t="s">
         <v>20</v>
       </c>
@@ -5213,7 +6656,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="B62" s="4"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -5222,7 +6665,7 @@
       <c r="G62" s="19"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="B63" s="7" t="s">
         <v>73</v>
       </c>
@@ -5233,17 +6676,17 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="B68" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="10" t="s">
         <v>0</v>
       </c>
@@ -5255,7 +6698,7 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="10"/>
       <c r="B77" s="11" t="s">
         <v>1</v>
@@ -5267,7 +6710,7 @@
       <c r="G77" s="12"/>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="10"/>
       <c r="B78" s="14"/>
       <c r="C78" s="10" t="s">
@@ -5279,7 +6722,7 @@
       <c r="G78" s="10"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="10"/>
       <c r="B79" s="14"/>
       <c r="C79" s="10" t="s">
@@ -5291,7 +6734,7 @@
       <c r="G79" s="10"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="10"/>
       <c r="B80" s="14"/>
       <c r="C80" s="10"/>
@@ -5303,7 +6746,7 @@
       <c r="G80" s="10"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="10"/>
       <c r="B81" s="14"/>
       <c r="C81" s="10"/>
@@ -5315,7 +6758,7 @@
       <c r="G81" s="10"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="10"/>
       <c r="B82" s="14"/>
       <c r="C82" s="10"/>
@@ -5327,7 +6770,7 @@
       <c r="G82" s="10"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="10"/>
       <c r="B83" s="14"/>
       <c r="C83" s="10"/>
@@ -5339,7 +6782,7 @@
       <c r="G83" s="10"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="10"/>
       <c r="B84" s="14"/>
       <c r="C84" s="10"/>
@@ -5351,7 +6794,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="10"/>
       <c r="B85" s="14"/>
       <c r="C85" s="10"/>
@@ -5363,7 +6806,7 @@
       <c r="G85" s="10"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="10"/>
       <c r="B86" s="14"/>
       <c r="C86" s="10"/>
@@ -5375,7 +6818,7 @@
       <c r="G86" s="10"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="10"/>
       <c r="B87" s="14"/>
       <c r="C87" s="10"/>
@@ -5393,7 +6836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="10"/>
       <c r="B88" s="14"/>
       <c r="C88" s="10"/>
@@ -5405,7 +6848,7 @@
       <c r="G88" s="10"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="10"/>
       <c r="B89" s="14"/>
       <c r="C89" s="10"/>
@@ -5417,7 +6860,7 @@
       <c r="G89" s="10"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="10"/>
       <c r="B90" s="14"/>
       <c r="C90" s="10"/>
@@ -5429,7 +6872,7 @@
       <c r="G90" s="10"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="10"/>
       <c r="B91" s="14"/>
       <c r="C91" s="10"/>
@@ -5441,7 +6884,7 @@
       <c r="G91" s="10"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="10"/>
       <c r="B92" s="14"/>
       <c r="C92" s="10"/>
@@ -5453,7 +6896,7 @@
       <c r="G92" s="10"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="10"/>
       <c r="B93" s="14"/>
       <c r="C93" s="10"/>
@@ -5465,7 +6908,7 @@
       <c r="G93" s="10"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="10"/>
       <c r="B94" s="14"/>
       <c r="C94" s="10"/>
@@ -5477,7 +6920,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="10"/>
       <c r="B95" s="16"/>
       <c r="C95" s="17"/>
@@ -5489,12 +6932,12 @@
       <c r="G95" s="17"/>
       <c r="H95" s="18"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="B99" s="1" t="s">
         <v>39</v>
       </c>
@@ -5505,7 +6948,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="B100" s="4" t="s">
         <v>40</v>
       </c>
@@ -5516,7 +6959,7 @@
       <c r="G100" s="19"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="B101" s="4" t="s">
         <v>41</v>
       </c>
@@ -5527,7 +6970,7 @@
       <c r="G101" s="19"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="B102" s="20" t="s">
         <v>83</v>
       </c>
@@ -5538,7 +6981,7 @@
       <c r="G102" s="19"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="B103" s="4" t="s">
         <v>42</v>
       </c>
@@ -5549,7 +6992,7 @@
       <c r="G103" s="19"/>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="B104" s="7" t="s">
         <v>43</v>
       </c>
@@ -5560,12 +7003,12 @@
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="B108" s="1" t="s">
         <v>61</v>
       </c>
@@ -5575,7 +7018,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="B109" s="4" t="s">
         <v>103</v>
       </c>
@@ -5585,7 +7028,7 @@
       <c r="F109" s="19"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="B110" s="4" t="s">
         <v>63</v>
       </c>
@@ -5595,7 +7038,7 @@
       <c r="F110" s="19"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="B111" s="4" t="s">
         <v>20</v>
       </c>
@@ -5605,7 +7048,7 @@
       <c r="F111" s="19"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="B112" s="4" t="s">
         <v>64</v>
       </c>
@@ -5615,7 +7058,7 @@
       <c r="F112" s="19"/>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7">
       <c r="B113" s="4" t="s">
         <v>104</v>
       </c>
@@ -5625,7 +7068,7 @@
       <c r="F113" s="19"/>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7">
       <c r="B114" s="4" t="s">
         <v>63</v>
       </c>
@@ -5635,7 +7078,7 @@
       <c r="F114" s="19"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7">
       <c r="B115" s="4" t="s">
         <v>20</v>
       </c>
@@ -5645,7 +7088,7 @@
       <c r="F115" s="19"/>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7">
       <c r="B116" s="4" t="s">
         <v>66</v>
       </c>
@@ -5655,7 +7098,7 @@
       <c r="F116" s="19"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7">
       <c r="B117" s="4" t="s">
         <v>105</v>
       </c>
@@ -5665,7 +7108,7 @@
       <c r="F117" s="19"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7">
       <c r="B118" s="4" t="s">
         <v>106</v>
       </c>
@@ -5675,7 +7118,7 @@
       <c r="F118" s="19"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7">
       <c r="B119" s="4" t="s">
         <v>68</v>
       </c>
@@ -5685,7 +7128,7 @@
       <c r="F119" s="19"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7">
       <c r="B120" s="4" t="s">
         <v>71</v>
       </c>
@@ -5695,7 +7138,7 @@
       <c r="F120" s="19"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7">
       <c r="B121" s="4" t="s">
         <v>107</v>
       </c>
@@ -5705,7 +7148,7 @@
       <c r="F121" s="19"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7">
       <c r="B122" s="4" t="s">
         <v>108</v>
       </c>
@@ -5715,7 +7158,7 @@
       <c r="F122" s="19"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7">
       <c r="B123" s="4" t="s">
         <v>71</v>
       </c>
@@ -5725,7 +7168,7 @@
       <c r="F123" s="19"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7">
       <c r="B124" s="4" t="s">
         <v>20</v>
       </c>
@@ -5735,7 +7178,7 @@
       <c r="F124" s="19"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7">
       <c r="B125" s="7" t="s">
         <v>73</v>
       </c>
@@ -5746,6 +7189,7 @@
       <c r="G125" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5759,9 +7203,9 @@
       <selection activeCell="N84" sqref="M84:N84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -5773,7 +7217,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>1</v>
@@ -5785,7 +7229,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="10"/>
       <c r="B6" s="14"/>
       <c r="C6" s="10" t="s">
@@ -5797,7 +7241,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="14"/>
       <c r="C7" s="10" t="s">
@@ -5809,7 +7253,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
@@ -5821,7 +7265,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
@@ -5833,7 +7277,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
@@ -5845,7 +7289,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
@@ -5857,7 +7301,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
@@ -5869,7 +7313,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
@@ -5881,7 +7325,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
@@ -5893,7 +7337,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
@@ -5905,7 +7349,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
@@ -5917,7 +7361,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
@@ -5929,7 +7373,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="10"/>
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
@@ -5941,7 +7385,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="10"/>
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
@@ -5953,7 +7397,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="10"/>
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
@@ -5965,7 +7409,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="10"/>
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
@@ -5977,7 +7421,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="10"/>
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
@@ -5995,7 +7439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="10"/>
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
@@ -6013,7 +7457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="10"/>
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
@@ -6025,12 +7469,12 @@
       <c r="G24" s="17"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="B28" s="1" t="s">
         <v>86</v>
       </c>
@@ -6055,7 +7499,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="B29" s="4" t="s">
         <v>87</v>
       </c>
@@ -6077,7 +7521,7 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="B30" s="4"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -6097,7 +7541,7 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
@@ -6119,7 +7563,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="9"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="B32" s="4"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -6128,7 +7572,7 @@
       <c r="G32" s="19"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="4" t="s">
         <v>88</v>
       </c>
@@ -6139,7 +7583,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="4" t="s">
         <v>89</v>
       </c>
@@ -6150,7 +7594,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="B35" s="4" t="s">
         <v>90</v>
       </c>
@@ -6161,7 +7605,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="B36" s="7" t="s">
         <v>91</v>
       </c>
@@ -6172,17 +7616,17 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="10" t="s">
         <v>0</v>
       </c>
@@ -6194,7 +7638,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
         <v>1</v>
@@ -6206,7 +7650,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="10"/>
       <c r="B50" s="14"/>
       <c r="C50" s="10" t="s">
@@ -6218,7 +7662,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="10"/>
       <c r="B51" s="14"/>
       <c r="C51" s="10" t="s">
@@ -6230,7 +7674,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="10"/>
       <c r="B52" s="14"/>
       <c r="C52" s="10"/>
@@ -6242,7 +7686,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="10"/>
       <c r="B53" s="14"/>
       <c r="C53" s="10"/>
@@ -6254,7 +7698,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="10"/>
       <c r="B54" s="14"/>
       <c r="C54" s="10"/>
@@ -6266,7 +7710,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="10"/>
       <c r="B55" s="14"/>
       <c r="C55" s="10"/>
@@ -6278,7 +7722,7 @@
       <c r="G55" s="10"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="10"/>
       <c r="B56" s="14"/>
       <c r="C56" s="10"/>
@@ -6290,7 +7734,7 @@
       <c r="G56" s="10"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="10"/>
       <c r="B57" s="14"/>
       <c r="C57" s="10"/>
@@ -6302,7 +7746,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="10"/>
       <c r="B58" s="14"/>
       <c r="C58" s="10"/>
@@ -6314,7 +7758,7 @@
       <c r="G58" s="10"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="10"/>
       <c r="B59" s="14"/>
       <c r="C59" s="10"/>
@@ -6326,7 +7770,7 @@
       <c r="G59" s="10"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="10"/>
       <c r="B60" s="14"/>
       <c r="C60" s="10"/>
@@ -6344,7 +7788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="10"/>
       <c r="B61" s="14"/>
       <c r="C61" s="10"/>
@@ -6356,7 +7800,7 @@
       <c r="G61" s="10"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="10"/>
       <c r="B62" s="14"/>
       <c r="C62" s="10"/>
@@ -6368,7 +7812,7 @@
       <c r="G62" s="10"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="10"/>
       <c r="B63" s="14"/>
       <c r="C63" s="10"/>
@@ -6380,7 +7824,7 @@
       <c r="G63" s="10"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="10"/>
       <c r="B64" s="14"/>
       <c r="C64" s="10"/>
@@ -6392,7 +7836,7 @@
       <c r="G64" s="10"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="10"/>
       <c r="B65" s="14"/>
       <c r="C65" s="10"/>
@@ -6404,7 +7848,7 @@
       <c r="G65" s="10"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="10"/>
       <c r="B66" s="14"/>
       <c r="C66" s="10"/>
@@ -6416,7 +7860,7 @@
       <c r="G66" s="10"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="10"/>
       <c r="B67" s="14"/>
       <c r="C67" s="10"/>
@@ -6428,7 +7872,7 @@
       <c r="G67" s="10"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="10"/>
       <c r="B68" s="14"/>
       <c r="C68" s="10"/>
@@ -6440,7 +7884,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="10"/>
       <c r="B69" s="16"/>
       <c r="C69" s="17"/>
@@ -6452,12 +7896,12 @@
       <c r="G69" s="17"/>
       <c r="H69" s="18"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="B73" s="1" t="s">
         <v>39</v>
       </c>
@@ -6468,7 +7912,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="B74" s="4" t="s">
         <v>40</v>
       </c>
@@ -6479,7 +7923,7 @@
       <c r="G74" s="19"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="B75" s="4" t="s">
         <v>41</v>
       </c>
@@ -6490,7 +7934,7 @@
       <c r="G75" s="19"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="B76" s="20" t="s">
         <v>97</v>
       </c>
@@ -6501,7 +7945,7 @@
       <c r="G76" s="19"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="B77" s="4" t="s">
         <v>42</v>
       </c>
@@ -6512,7 +7956,7 @@
       <c r="G77" s="19"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="B78" s="7" t="s">
         <v>43</v>
       </c>
@@ -6523,12 +7967,12 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="B82" s="1" t="s">
         <v>110</v>
       </c>
@@ -6539,7 +7983,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="B83" s="4" t="s">
         <v>87</v>
       </c>
@@ -6550,7 +7994,7 @@
       <c r="G83" s="19"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="B84" s="4" t="s">
         <v>20</v>
       </c>
@@ -6561,7 +8005,7 @@
       <c r="G84" s="19"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="B85" s="4" t="s">
         <v>88</v>
       </c>
@@ -6572,7 +8016,7 @@
       <c r="G85" s="19"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="B86" s="4" t="s">
         <v>111</v>
       </c>
@@ -6583,7 +8027,7 @@
       <c r="G86" s="19"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="B87" s="4" t="s">
         <v>112</v>
       </c>
@@ -6594,7 +8038,7 @@
       <c r="G87" s="19"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="B88" s="7" t="s">
         <v>91</v>
       </c>
@@ -6606,6 +8050,7 @@
       <c r="H88" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6619,9 +8064,9 @@
       <selection activeCell="A72" sqref="A72:H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -6633,7 +8078,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>1</v>
@@ -6645,7 +8090,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="10"/>
       <c r="B6" s="14"/>
       <c r="C6" s="10" t="s">
@@ -6657,7 +8102,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="14"/>
       <c r="C7" s="10" t="s">
@@ -6669,7 +8114,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
@@ -6681,7 +8126,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
@@ -6693,7 +8138,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
@@ -6705,7 +8150,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
@@ -6717,7 +8162,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
@@ -6729,7 +8174,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
@@ -6741,7 +8186,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
@@ -6753,7 +8198,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
@@ -6765,7 +8210,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
@@ -6777,7 +8222,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
@@ -6789,7 +8234,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="10"/>
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
@@ -6801,7 +8246,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="10"/>
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
@@ -6813,7 +8258,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="10"/>
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
@@ -6825,7 +8270,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="10"/>
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
@@ -6837,7 +8282,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="10"/>
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
@@ -6849,7 +8294,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="10"/>
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
@@ -6861,7 +8306,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="10"/>
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
@@ -6879,7 +8324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="10"/>
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
@@ -6897,7 +8342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="10"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
@@ -6909,12 +8354,12 @@
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="B30" s="1" t="s">
         <v>117</v>
       </c>
@@ -6933,7 +8378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="B31" s="4" t="s">
         <v>100</v>
       </c>
@@ -6946,7 +8391,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
@@ -6959,7 +8404,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="B33" s="4"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -6970,7 +8415,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="B34" s="7" t="s">
         <v>119</v>
       </c>
@@ -6983,17 +8428,17 @@
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="B38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="10" t="s">
         <v>0</v>
       </c>
@@ -7005,7 +8450,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="10"/>
       <c r="B47" s="11" t="s">
         <v>1</v>
@@ -7017,7 +8462,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="10"/>
       <c r="B48" s="14"/>
       <c r="C48" s="10" t="s">
@@ -7029,7 +8474,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="10"/>
       <c r="B49" s="14"/>
       <c r="C49" s="10" t="s">
@@ -7041,7 +8486,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="10"/>
       <c r="B50" s="14"/>
       <c r="C50" s="10"/>
@@ -7053,7 +8498,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="10"/>
       <c r="B51" s="14"/>
       <c r="C51" s="10"/>
@@ -7065,7 +8510,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="10"/>
       <c r="B52" s="14"/>
       <c r="C52" s="10"/>
@@ -7077,7 +8522,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="10"/>
       <c r="B53" s="14"/>
       <c r="C53" s="10"/>
@@ -7089,7 +8534,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="10"/>
       <c r="B54" s="14"/>
       <c r="C54" s="10"/>
@@ -7101,7 +8546,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="10"/>
       <c r="B55" s="14"/>
       <c r="C55" s="10"/>
@@ -7113,7 +8558,7 @@
       <c r="G55" s="10"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="10"/>
       <c r="B56" s="14"/>
       <c r="C56" s="10"/>
@@ -7125,7 +8570,7 @@
       <c r="G56" s="10"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="10"/>
       <c r="B57" s="14"/>
       <c r="C57" s="10"/>
@@ -7137,7 +8582,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="10"/>
       <c r="B58" s="14"/>
       <c r="C58" s="10"/>
@@ -7149,7 +8594,7 @@
       <c r="G58" s="10"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="10"/>
       <c r="B59" s="14"/>
       <c r="C59" s="10"/>
@@ -7167,7 +8612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="10"/>
       <c r="B60" s="14"/>
       <c r="C60" s="10"/>
@@ -7179,7 +8624,7 @@
       <c r="G60" s="10"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="10"/>
       <c r="B61" s="14"/>
       <c r="C61" s="10"/>
@@ -7191,7 +8636,7 @@
       <c r="G61" s="10"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="10"/>
       <c r="B62" s="14"/>
       <c r="C62" s="10"/>
@@ -7203,7 +8648,7 @@
       <c r="G62" s="10"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="10"/>
       <c r="B63" s="14"/>
       <c r="C63" s="10"/>
@@ -7215,7 +8660,7 @@
       <c r="G63" s="10"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="10"/>
       <c r="B64" s="14"/>
       <c r="C64" s="10"/>
@@ -7227,7 +8672,7 @@
       <c r="G64" s="10"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="10"/>
       <c r="B65" s="14"/>
       <c r="C65" s="10"/>
@@ -7239,7 +8684,7 @@
       <c r="G65" s="10"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="10"/>
       <c r="B66" s="14"/>
       <c r="C66" s="10"/>
@@ -7251,7 +8696,7 @@
       <c r="G66" s="10"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="10"/>
       <c r="B67" s="14"/>
       <c r="C67" s="10"/>
@@ -7263,7 +8708,7 @@
       <c r="G67" s="10"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="10"/>
       <c r="B68" s="14"/>
       <c r="C68" s="10"/>
@@ -7275,7 +8720,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="10"/>
       <c r="B69" s="16"/>
       <c r="C69" s="17"/>
@@ -7287,12 +8732,12 @@
       <c r="G69" s="17"/>
       <c r="H69" s="18"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="B73" s="1" t="s">
         <v>39</v>
       </c>
@@ -7303,7 +8748,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="B74" s="4" t="s">
         <v>40</v>
       </c>
@@ -7314,7 +8759,7 @@
       <c r="G74" s="19"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="B75" s="4" t="s">
         <v>41</v>
       </c>
@@ -7325,7 +8770,7 @@
       <c r="G75" s="19"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="B76" s="20" t="s">
         <v>114</v>
       </c>
@@ -7336,7 +8781,7 @@
       <c r="G76" s="19"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="B77" s="4" t="s">
         <v>42</v>
       </c>
@@ -7347,7 +8792,7 @@
       <c r="G77" s="19"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="B78" s="7" t="s">
         <v>43</v>
       </c>
@@ -7358,12 +8803,12 @@
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="B82" s="1" t="s">
         <v>116</v>
       </c>
@@ -7376,7 +8821,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="B83" s="4" t="s">
         <v>100</v>
       </c>
@@ -7389,7 +8834,7 @@
       <c r="I83" s="19"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="B84" s="4" t="s">
         <v>20</v>
       </c>
@@ -7402,7 +8847,7 @@
       <c r="I84" s="19"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="B85" s="7" t="s">
         <v>101</v>
       </c>
@@ -7416,6 +8861,7 @@
       <c r="J85" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7425,18 +8871,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8D4588-595B-43B4-A61D-FA4C31FB6656}">
   <dimension ref="A2:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -7448,7 +8894,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>1</v>
@@ -7460,7 +8906,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="10"/>
       <c r="B6" s="14"/>
       <c r="C6" s="10" t="s">
@@ -7472,7 +8918,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="14"/>
       <c r="C7" s="10" t="s">
@@ -7484,7 +8930,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
@@ -7496,7 +8942,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
@@ -7508,7 +8954,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
@@ -7520,7 +8966,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
@@ -7532,7 +8978,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
@@ -7544,7 +8990,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
@@ -7556,7 +9002,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
@@ -7568,7 +9014,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
@@ -7580,7 +9026,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
@@ -7592,7 +9038,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
@@ -7604,7 +9050,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="10"/>
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
@@ -7616,7 +9062,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="10"/>
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
@@ -7628,7 +9074,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="10"/>
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
@@ -7640,7 +9086,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="10"/>
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
@@ -7652,7 +9098,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="10"/>
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
@@ -7664,7 +9110,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="10"/>
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
@@ -7676,7 +9122,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="10"/>
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
@@ -7688,7 +9134,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="10"/>
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
@@ -7700,7 +9146,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="10"/>
       <c r="B26" s="14"/>
       <c r="C26" s="10"/>
@@ -7718,7 +9164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="10"/>
       <c r="B27" s="14"/>
       <c r="C27" s="10"/>
@@ -7736,7 +9182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="10"/>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
@@ -7748,12 +9194,12 @@
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="B32" s="1" t="s">
         <v>122</v>
       </c>
@@ -7764,7 +9210,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10">
       <c r="B33" s="4" t="s">
         <v>63</v>
       </c>
@@ -7775,7 +9221,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10">
       <c r="B34" s="4" t="s">
         <v>20</v>
       </c>
@@ -7786,7 +9232,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10">
       <c r="B35" s="4"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -7795,7 +9241,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10">
       <c r="B36" s="4" t="s">
         <v>123</v>
       </c>
@@ -7812,7 +9258,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10">
       <c r="B37" s="4" t="s">
         <v>63</v>
       </c>
@@ -7823,7 +9269,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10">
       <c r="B38" s="4" t="s">
         <v>20</v>
       </c>
@@ -7834,7 +9280,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10">
       <c r="B39" s="4"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -7843,7 +9289,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10">
       <c r="B40" s="4" t="s">
         <v>132</v>
       </c>
@@ -7854,7 +9300,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10">
       <c r="B41" s="4" t="s">
         <v>134</v>
       </c>
@@ -7865,7 +9311,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10">
       <c r="B42" s="4" t="s">
         <v>135</v>
       </c>
@@ -7876,7 +9322,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10">
       <c r="B43" s="4" t="s">
         <v>71</v>
       </c>
@@ -7887,7 +9333,7 @@
       <c r="G43" s="19"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10">
       <c r="B44" s="4"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -7896,7 +9342,7 @@
       <c r="G44" s="19"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10">
       <c r="B45" s="4"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -7905,7 +9351,7 @@
       <c r="G45" s="19"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10">
       <c r="B46" s="4" t="s">
         <v>124</v>
       </c>
@@ -7916,7 +9362,7 @@
       <c r="G46" s="19"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10">
       <c r="B47" s="4" t="s">
         <v>125</v>
       </c>
@@ -7927,7 +9373,7 @@
       <c r="G47" s="19"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10">
       <c r="B48" s="7" t="s">
         <v>133</v>
       </c>
@@ -7938,17 +9384,17 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="B52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="10" t="s">
         <v>0</v>
       </c>
@@ -7960,7 +9406,7 @@
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="10"/>
       <c r="B61" s="11" t="s">
         <v>1</v>
@@ -7972,7 +9418,7 @@
       <c r="G61" s="12"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="10"/>
       <c r="B62" s="14"/>
       <c r="C62" s="10" t="s">
@@ -7984,7 +9430,7 @@
       <c r="G62" s="10"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="10"/>
       <c r="B63" s="14"/>
       <c r="C63" s="10" t="s">
@@ -7996,7 +9442,7 @@
       <c r="G63" s="10"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="10"/>
       <c r="B64" s="14"/>
       <c r="C64" s="10"/>
@@ -8008,7 +9454,7 @@
       <c r="G64" s="10"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="10"/>
       <c r="B65" s="14"/>
       <c r="C65" s="10"/>
@@ -8020,7 +9466,7 @@
       <c r="G65" s="10"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="10"/>
       <c r="B66" s="14"/>
       <c r="C66" s="10"/>
@@ -8032,7 +9478,7 @@
       <c r="G66" s="10"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="10"/>
       <c r="B67" s="14"/>
       <c r="C67" s="10"/>
@@ -8044,7 +9490,7 @@
       <c r="G67" s="10"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="10"/>
       <c r="B68" s="14"/>
       <c r="C68" s="10"/>
@@ -8056,7 +9502,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="10"/>
       <c r="B69" s="14"/>
       <c r="C69" s="10"/>
@@ -8068,7 +9514,7 @@
       <c r="G69" s="10"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="10"/>
       <c r="B70" s="14"/>
       <c r="C70" s="10"/>
@@ -8080,7 +9526,7 @@
       <c r="G70" s="10"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="10"/>
       <c r="B71" s="14"/>
       <c r="C71" s="10"/>
@@ -8092,7 +9538,7 @@
       <c r="G71" s="10"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="10"/>
       <c r="B72" s="14"/>
       <c r="C72" s="10"/>
@@ -8104,7 +9550,7 @@
       <c r="G72" s="10"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="10"/>
       <c r="B73" s="14"/>
       <c r="C73" s="10"/>
@@ -8116,7 +9562,7 @@
       <c r="G73" s="10"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="10"/>
       <c r="B74" s="14"/>
       <c r="C74" s="10"/>
@@ -8134,7 +9580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="10"/>
       <c r="B75" s="14"/>
       <c r="C75" s="10"/>
@@ -8146,7 +9592,7 @@
       <c r="G75" s="10"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="10"/>
       <c r="B76" s="14"/>
       <c r="C76" s="10"/>
@@ -8158,7 +9604,7 @@
       <c r="G76" s="10"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="10"/>
       <c r="B77" s="14"/>
       <c r="C77" s="10"/>
@@ -8170,7 +9616,7 @@
       <c r="G77" s="10"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="10"/>
       <c r="B78" s="14"/>
       <c r="C78" s="10"/>
@@ -8182,7 +9628,7 @@
       <c r="G78" s="10"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="10"/>
       <c r="B79" s="14"/>
       <c r="C79" s="10"/>
@@ -8194,7 +9640,7 @@
       <c r="G79" s="10"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="10"/>
       <c r="B80" s="14"/>
       <c r="C80" s="10"/>
@@ -8206,7 +9652,7 @@
       <c r="G80" s="10"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="10"/>
       <c r="B81" s="14"/>
       <c r="C81" s="10"/>
@@ -8218,7 +9664,7 @@
       <c r="G81" s="10"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="10"/>
       <c r="B82" s="14"/>
       <c r="C82" s="10"/>
@@ -8230,7 +9676,7 @@
       <c r="G82" s="10"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="10"/>
       <c r="B83" s="14"/>
       <c r="C83" s="10"/>
@@ -8242,7 +9688,7 @@
       <c r="G83" s="10"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="10"/>
       <c r="B84" s="14"/>
       <c r="C84" s="10"/>
@@ -8254,7 +9700,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="10"/>
       <c r="B85" s="16"/>
       <c r="C85" s="17"/>
@@ -8266,7 +9712,7 @@
       <c r="G85" s="17"/>
       <c r="H85" s="18"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="10"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -8276,7 +9722,7 @@
       <c r="G86" s="21"/>
       <c r="H86" s="21"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="10"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -8286,12 +9732,12 @@
       <c r="G87" s="21"/>
       <c r="H87" s="21"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="B89" s="1" t="s">
         <v>39</v>
       </c>
@@ -8302,7 +9748,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="B90" s="4" t="s">
         <v>40</v>
       </c>
@@ -8313,7 +9759,7 @@
       <c r="G90" s="19"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="B91" s="4" t="s">
         <v>41</v>
       </c>
@@ -8324,7 +9770,7 @@
       <c r="G91" s="19"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="B92" s="20" t="s">
         <v>138</v>
       </c>
@@ -8335,7 +9781,7 @@
       <c r="G92" s="19"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="B93" s="4" t="s">
         <v>42</v>
       </c>
@@ -8346,7 +9792,7 @@
       <c r="G93" s="19"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="B94" s="7" t="s">
         <v>43</v>
       </c>
@@ -8357,7 +9803,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="10"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -8367,12 +9813,12 @@
       <c r="G95" s="21"/>
       <c r="H95" s="21"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="B98" s="1" t="s">
         <v>130</v>
       </c>
@@ -8382,7 +9828,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="B99" s="4" t="s">
         <v>63</v>
       </c>
@@ -8392,7 +9838,7 @@
       <c r="F99" s="19"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="B100" s="4" t="s">
         <v>20</v>
       </c>
@@ -8402,7 +9848,7 @@
       <c r="F100" s="19"/>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="B101" s="4" t="s">
         <v>131</v>
       </c>
@@ -8412,7 +9858,7 @@
       <c r="F101" s="19"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="B102" s="4" t="s">
         <v>63</v>
       </c>
@@ -8422,7 +9868,7 @@
       <c r="F102" s="19"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="B103" s="4" t="s">
         <v>129</v>
       </c>
@@ -8432,7 +9878,7 @@
       <c r="F103" s="19"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="B104" s="4" t="s">
         <v>136</v>
       </c>
@@ -8442,7 +9888,7 @@
       <c r="F104" s="19"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="B105" s="4" t="s">
         <v>137</v>
       </c>
@@ -8452,7 +9898,7 @@
       <c r="F105" s="19"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="B106" s="4" t="s">
         <v>129</v>
       </c>
@@ -8462,7 +9908,7 @@
       <c r="F106" s="19"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="B107" s="4" t="s">
         <v>124</v>
       </c>
@@ -8472,7 +9918,7 @@
       <c r="F107" s="19"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="B108" s="4" t="s">
         <v>125</v>
       </c>
@@ -8482,7 +9928,7 @@
       <c r="F108" s="19"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="B109" s="7" t="s">
         <v>133</v>
       </c>
@@ -8493,6 +9939,1023 @@
       <c r="G109" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1BB9CA-B5D1-4545-980A-AA5557EE93B9}">
+  <dimension ref="A4:J106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R87" sqref="R87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="10"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="15"/>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="10"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="15"/>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="10"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="5"/>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="5"/>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5">
+      <c r="B37" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="5"/>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16.5">
+      <c r="B38" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="5"/>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="10"/>
+      <c r="B58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="10"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="10"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="10"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="10"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="10"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="10"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="10"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="10"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="10"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="10"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="10"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="10"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="10"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="10"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="15"/>
+      <c r="I72" t="s">
+        <v>146</v>
+      </c>
+      <c r="J72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="10"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="10"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="10"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="10"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="10"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="10"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="10"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="10"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="10"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="10"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G81" s="10"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="10"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G82" s="10"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="10"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="10"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="18"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="B88" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="B89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="B90" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="B93" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/me/2.typescript/3.Functions.xlsx
+++ b/me/2.typescript/3.Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C369E-BF1B-425D-A4FF-CC306CDE0885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5AFA40-5BFE-4ECA-8F89-81A7F0DA5610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Return" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Rest params" sheetId="4" r:id="rId4"/>
     <sheet name="Function types" sheetId="5" r:id="rId5"/>
     <sheet name="Arrow Functions" sheetId="6" r:id="rId6"/>
+    <sheet name="Overload" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="194">
   <si>
     <t>構成</t>
   </si>
@@ -1479,6 +1480,87 @@
   <si>
     <t>let f5 = (i) =&gt; i * i;</t>
   </si>
+  <si>
+    <t>06-overload.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\04_function\06-overload.ts</t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>function funcAbc(x: string) : number{</t>
+  </si>
+  <si>
+    <t>    return 100;</t>
+  </si>
+  <si>
+    <t>function funcAbc(x: number) : string{</t>
+  </si>
+  <si>
+    <t>    return "abc";</t>
+  </si>
+  <si>
+    <t>funcAbc("abc");</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>function funcAbc(x: string) : number;</t>
+  </si>
+  <si>
+    <t>function funcAbc(x: number) : string;</t>
+  </si>
+  <si>
+    <t>function funcAbc(x: boolean) : boolean;</t>
+  </si>
+  <si>
+    <t>function funcAbc(x: any) : any {</t>
+  </si>
+  <si>
+    <t>    if (typeof x == "string") {</t>
+  </si>
+  <si>
+    <t>        return 100;</t>
+  </si>
+  <si>
+    <t>    } else if (typeof x == "number") {</t>
+  </si>
+  <si>
+    <t>        return "abc";</t>
+  </si>
+  <si>
+    <t>        return true;</t>
+  </si>
+  <si>
+    <t>console.log(funcAbc(false));</t>
+  </si>
+  <si>
+    <t>06-overload.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/04_function/06-overload.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\04_function\06-overload.js</t>
+  </si>
+  <si>
+    <t>function funcAbc(x) {</t>
+  </si>
+  <si>
+    <t>    else if (typeof x == "number") {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function funcAbc khai báo 2 lần nên nó bị trùng lặp với nhau. </t>
+  </si>
+  <si>
+    <t>Cần phải dùng Overload để giải quyết vấn đề này</t>
+  </si>
+  <si>
+    <t>Overload nên phải có khai báo trường hợp any - any</t>
+  </si>
 </sst>
 </file>
 
@@ -1637,7 +1719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1662,6 +1744,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4788,6 +4873,520 @@
         <a:xfrm>
           <a:off x="1890059" y="24466176"/>
           <a:ext cx="4646706" cy="1949824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>113452</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB702D57-F3F6-163B-D629-CED4E5BC02C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="12239625"/>
+          <a:ext cx="6780952" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5689FEE2-C466-BDCE-1F22-1408C0634E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="13230225"/>
+          <a:ext cx="2295525" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3203799-A339-DE4B-D551-733EC52276D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3124200" y="16735425"/>
+          <a:ext cx="476250" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB89801F-CBDB-4457-DB4E-52F5863265D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2771775" y="5486400"/>
+          <a:ext cx="447675" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FE9200-6BDC-6949-7473-FFEDD08B1EFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2390775" y="9515475"/>
+          <a:ext cx="5133975" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095E8DB0-2902-FC28-DACD-09B5E03B690D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1400175" y="6819900"/>
+          <a:ext cx="9525" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFBBB204-C126-75DE-F11E-12C8C55A827F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1600200" y="7791450"/>
+          <a:ext cx="3905250" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>418458</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A516926D-D616-6DE7-53B7-963A1286CEE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5648325" y="9810750"/>
+          <a:ext cx="5133333" cy="1600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282777D9-D414-1AEE-C6B6-45B1D8C13BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2352675" y="10677525"/>
+          <a:ext cx="3552825" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD668ED-0E02-A1D7-2CBB-7FAE2F33AF19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2847975" y="20574000"/>
+          <a:ext cx="85725" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9949,8 +10548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1BB9CA-B5D1-4545-980A-AA5557EE93B9}">
   <dimension ref="A4:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R87" sqref="R87"/>
+    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10959,4 +11558,1259 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4191B0E0-43AE-4730-A6FB-44AE4326A4C2}">
+  <dimension ref="A3:J125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="L112" sqref="L112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="10"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="10"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="15"/>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="10"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="15"/>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="10"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="4"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="5"/>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="5"/>
+      <c r="J41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="4"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="B50" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="5"/>
+      <c r="J50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="B52" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="B56" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="B58" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="20"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="10"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="10"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="10"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="10"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="10"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="10"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="10"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="10"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="10"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="10"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="10"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G83" s="10"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="10"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="10"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G85" s="10"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="10"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G86" s="10"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="10"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G87" s="10"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="10"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G88" s="10"/>
+      <c r="H88" s="15"/>
+      <c r="I88" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="10"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="10"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="10"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="10"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="10"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="10"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="10"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="10"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G95" s="10"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="10"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G96" s="10"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="10"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G97" s="10"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="10"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G98" s="10"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="10"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G99" s="10"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="10"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="10"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="18"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="B106" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="9"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="B114" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="B117" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="B119" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="B120" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="B121" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="B122" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="B123" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="B124" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="B125" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>